--- a/medicine/Premiers secours et secourisme/Organisation_des_secours_en_France/Organisation_des_secours_en_France.xlsx
+++ b/medicine/Premiers secours et secourisme/Organisation_des_secours_en_France/Organisation_des_secours_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Organisation des secours en France se fait dans le cadre de la sécurité civile. Celle-ci, qui comprend aussi bien la sûreté, la protection de la santé face aux accidents quotidiens, les maladies et les catastrophes, naturelles ou non, est explicitement inscrite dans la Constitution française.
 L'État français organise donc les secours publics, pour les situations normales (risque quotidien) comme pour les situations d'exception (catastrophes) :
@@ -516,7 +528,9 @@
           <t>Organisation des secours par l'État</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, le réseau de télécommunication achemine gratuitement les appels vers les services de secours publics (téléphones fixes, téléphones mobiles, bornes d'appel d'urgence sur les autoroutes, voies express et sur les quais de gare) ; la gestion des appels est traitée principalement par trois centres :
 le 18, le centre de traitement de l'alerte (CTA) des sapeurs-pompiers chargés des secours dans les incendies, du sauvetage et extraction du danger des victimes d'accidents de toute nature ;
@@ -552,7 +566,9 @@
           <t>Les secours organisés par la nation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On dispose également de services publics de secours à personnes ; des entreprises privées et des personnels libéraux participent à ce service public :
 les médecins généralistes ;
@@ -590,7 +606,9 @@
           <t>L'organisation normale des secours</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque standard téléphonique (15, 17, 18) a sa spécialité :
 les risques (incendies, fuites de gaz) , situations d'accident (accidents de la circulation) et de pollution, les secours d'urgence aux personnes pour les sapeurs-pompiers ;
@@ -641,7 +659,9 @@
           <t>L'organisation exceptionnelle des secours</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>En cas de circonstances exceptionnelles, l'État a mis en place des plans particuliers de protection. L'organisation se fait en fonction de l'ampleur et l'urgence du phénomène :
 urgence limitée à une personne ou à un groupe de personnes réduit, action particulière (ex : enlèvement de journaliste) ;
@@ -677,7 +697,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>la constitution et notamment le préambule à la constitution de 1946 qui y est annexé articles 11 et 12, la déclaration des droits de l'homme et du citoyen (1789) article 2
 déclaration universelle des droits de l'homme (1948), un des traités internationaux qu'a ratifié la France, articles 3, 22 et 25
